--- a/PW.xlsx
+++ b/PW.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="NEW_officePC" sheetId="2" r:id="rId1"/>
     <sheet name="補足" sheetId="3" r:id="rId2"/>
-    <sheet name="OLD" sheetId="1" r:id="rId3"/>
+    <sheet name="SorceTree" sheetId="4" r:id="rId3"/>
+    <sheet name="OLD" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -1000,6 +1001,201 @@
         <a:xfrm>
           <a:off x="683559" y="7395882"/>
           <a:ext cx="13657143" cy="7019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>313514</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>56436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="171450"/>
+          <a:ext cx="6485714" cy="5714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>313514</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>56436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="6000750"/>
+          <a:ext cx="6485714" cy="5714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>313514</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>56436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="171450"/>
+          <a:ext cx="6485714" cy="5714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>455771</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="6000750"/>
+          <a:ext cx="11428571" cy="7619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>455771</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="13716000"/>
+          <a:ext cx="11428571" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1300,7 +1496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -2245,7 +2441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
@@ -2259,6 +2455,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>

--- a/PW.xlsx
+++ b/PW.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D897A184-077C-42AE-9CCB-F52AFB2D5FD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW_officePC" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="274">
   <si>
     <t>name</t>
   </si>
@@ -844,13 +845,17 @@
   </si>
   <si>
     <t>819070850203</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -948,7 +953,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -986,7 +997,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1029,7 +1046,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1067,7 +1090,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1105,7 +1134,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1143,7 +1178,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1181,7 +1222,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1283,6 +1330,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1318,6 +1382,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1493,11 +1574,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2430,6 +2511,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2438,10 +2524,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
@@ -2455,7 +2541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2472,7 +2558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">

--- a/PW.xlsx
+++ b/PW.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D897A184-077C-42AE-9CCB-F52AFB2D5FD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D897A184-077C-42AE-9CCB-F52AFB2D5FD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{35CEE927-8263-4CE8-A9EA-1D31C33648BA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW_officePC" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="273">
   <si>
     <t>name</t>
   </si>
@@ -845,10 +845,6 @@
   </si>
   <si>
     <t>819070850203</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1575,22 +1571,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1618,7 +1614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1632,7 +1628,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>187</v>
       </c>
@@ -1646,7 +1642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>189</v>
       </c>
@@ -1660,7 +1656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1674,7 +1670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>191</v>
       </c>
@@ -1688,7 +1684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>193</v>
       </c>
@@ -1702,7 +1698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1716,7 +1712,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1730,7 +1726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>196</v>
       </c>
@@ -1744,7 +1740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>198</v>
       </c>
@@ -1758,7 +1754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1772,7 +1768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>200</v>
       </c>
@@ -1786,7 +1782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1800,7 +1796,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1814,7 +1810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1828,7 +1824,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1842,7 +1838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>204</v>
       </c>
@@ -1853,7 +1849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>206</v>
       </c>
@@ -1867,7 +1863,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -1881,7 +1877,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>209</v>
       </c>
@@ -1895,7 +1891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>211</v>
       </c>
@@ -1909,7 +1905,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>215</v>
       </c>
@@ -1923,7 +1919,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
@@ -1937,7 +1933,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -1951,7 +1947,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>220</v>
       </c>
@@ -1965,7 +1961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
@@ -1979,7 +1975,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>222</v>
       </c>
@@ -1993,7 +1989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
@@ -2007,7 +2003,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>65</v>
       </c>
@@ -2021,7 +2017,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>226</v>
       </c>
@@ -2035,7 +2031,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>229</v>
       </c>
@@ -2049,7 +2045,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
@@ -2063,7 +2059,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>232</v>
       </c>
@@ -2077,7 +2073,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>82</v>
       </c>
@@ -2091,7 +2087,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
@@ -2105,7 +2101,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>234</v>
       </c>
@@ -2119,7 +2115,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>236</v>
       </c>
@@ -2133,7 +2129,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>90</v>
       </c>
@@ -2147,7 +2143,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>238</v>
       </c>
@@ -2161,7 +2157,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>240</v>
       </c>
@@ -2175,7 +2171,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>94</v>
       </c>
@@ -2189,7 +2185,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>97</v>
       </c>
@@ -2203,7 +2199,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>103</v>
       </c>
@@ -2217,7 +2213,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -2231,7 +2227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>245</v>
       </c>
@@ -2245,7 +2241,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>120</v>
       </c>
@@ -2259,7 +2255,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>126</v>
       </c>
@@ -2273,7 +2269,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>128</v>
       </c>
@@ -2287,7 +2283,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>132</v>
       </c>
@@ -2301,7 +2297,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>138</v>
       </c>
@@ -2315,7 +2311,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>249</v>
       </c>
@@ -2329,7 +2325,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>148</v>
       </c>
@@ -2343,7 +2339,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>152</v>
       </c>
@@ -2357,7 +2353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>252</v>
       </c>
@@ -2371,7 +2367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>254</v>
       </c>
@@ -2385,7 +2381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>256</v>
       </c>
@@ -2399,7 +2395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>258</v>
       </c>
@@ -2413,7 +2409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>154</v>
       </c>
@@ -2427,7 +2423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>157</v>
       </c>
@@ -2441,7 +2437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>261</v>
       </c>
@@ -2455,7 +2451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>174</v>
       </c>
@@ -2469,7 +2465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>263</v>
       </c>
@@ -2483,7 +2479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>179</v>
       </c>
@@ -2497,7 +2493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>266</v>
       </c>
@@ -2509,11 +2505,6 @@
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +2522,7 @@
       <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2548,7 +2539,7 @@
       <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2565,16 +2556,16 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="133.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="133.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2588,7 +2579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2602,7 +2593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2616,7 +2607,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2630,7 +2621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2644,7 +2635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2658,7 +2649,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2672,7 +2663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2686,7 +2677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -2700,7 +2691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -2714,7 +2705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -2728,7 +2719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -2742,7 +2733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -2756,7 +2747,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -2770,7 +2761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -2784,7 +2775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -2798,7 +2789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -2812,7 +2803,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
@@ -2826,7 +2817,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -2840,7 +2831,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
@@ -2854,7 +2845,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -2868,7 +2859,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -2882,7 +2873,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
@@ -2896,7 +2887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>55</v>
       </c>
@@ -2910,7 +2901,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
@@ -2924,7 +2915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
@@ -2938,7 +2929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
@@ -2952,7 +2943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>65</v>
       </c>
@@ -2966,7 +2957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>67</v>
       </c>
@@ -2980,7 +2971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>67</v>
       </c>
@@ -2994,7 +2985,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>74</v>
       </c>
@@ -3008,7 +2999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>76</v>
       </c>
@@ -3022,7 +3013,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>78</v>
       </c>
@@ -3036,7 +3027,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>80</v>
       </c>
@@ -3050,7 +3041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
@@ -3064,7 +3055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>84</v>
       </c>
@@ -3078,7 +3069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
@@ -3092,7 +3083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>88</v>
       </c>
@@ -3106,7 +3097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>90</v>
       </c>
@@ -3120,7 +3111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -3134,7 +3125,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>94</v>
       </c>
@@ -3148,7 +3139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>97</v>
       </c>
@@ -3162,7 +3153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>99</v>
       </c>
@@ -3176,7 +3167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>101</v>
       </c>
@@ -3190,7 +3181,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>103</v>
       </c>
@@ -3204,7 +3195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -3218,7 +3209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>107</v>
       </c>
@@ -3232,7 +3223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>109</v>
       </c>
@@ -3246,7 +3237,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>113</v>
       </c>
@@ -3260,7 +3251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>115</v>
       </c>
@@ -3274,7 +3265,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>118</v>
       </c>
@@ -3288,7 +3279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>120</v>
       </c>
@@ -3302,7 +3293,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>122</v>
       </c>
@@ -3316,7 +3307,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>124</v>
       </c>
@@ -3330,7 +3321,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>126</v>
       </c>
@@ -3344,7 +3335,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>128</v>
       </c>
@@ -3358,7 +3349,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>130</v>
       </c>
@@ -3372,7 +3363,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>132</v>
       </c>
@@ -3386,7 +3377,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>134</v>
       </c>
@@ -3400,7 +3391,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>136</v>
       </c>
@@ -3414,7 +3405,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>138</v>
       </c>
@@ -3428,7 +3419,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>140</v>
       </c>
@@ -3442,7 +3433,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>142</v>
       </c>
@@ -3456,7 +3447,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>144</v>
       </c>
@@ -3470,7 +3461,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>148</v>
       </c>
@@ -3484,7 +3475,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>150</v>
       </c>
@@ -3498,7 +3489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>152</v>
       </c>
@@ -3512,7 +3503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>154</v>
       </c>
@@ -3526,7 +3517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>157</v>
       </c>
@@ -3540,7 +3531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>159</v>
       </c>
@@ -3554,7 +3545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>161</v>
       </c>
@@ -3568,7 +3559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>163</v>
       </c>
@@ -3582,7 +3573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>165</v>
       </c>
@@ -3596,7 +3587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>167</v>
       </c>
@@ -3610,7 +3601,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>169</v>
       </c>
@@ -3624,7 +3615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>172</v>
       </c>
@@ -3638,7 +3629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>174</v>
       </c>
@@ -3652,7 +3643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>177</v>
       </c>
@@ -3666,7 +3657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>179</v>
       </c>
@@ -3680,7 +3671,7 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>181</v>
       </c>
